--- a/data/long_bre/BESCORE_R-Estudios-long_bre.xlsx
+++ b/data/long_bre/BESCORE_R-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -840,7 +840,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1048,7 +1048,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1150,7 +1150,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1358,7 +1358,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1460,7 +1460,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1668,7 +1668,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1770,7 +1770,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
